--- a/database/httpsineorgplencategorypublications.xlsx
+++ b/database/httpsineorgplencategorypublications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2665,114 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/one-belt-one-road/</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>One Belt One Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/karolina-siekierka/</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Karolina Siekierka</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/mag-stephanie-fenkart-ma/</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Stephanie Fenkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/french-polynesia/</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>French Polynesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/new-caledonia/</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>New Caledonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/un/</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/chinas-influence-in-the-western-balkans-partnership-or-confrontation/</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>China’s Influence in the Western Balkans: Partnership or confrontation?</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/tag/domestic-law/</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Domestic law</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/the-future-of-france-in-the-indo-pacific-region-in-relation-to-the-upcoming-independence-referendum-in-new-caledonia/</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>The future of France in the Indo-Pacific region in relation to the upcoming independence referendum in New Caledonia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsineorgplencategorypublications.xlsx
+++ b/database/httpsineorgplencategorypublications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,6 +2773,390 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/bitcoin/</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/cryptocurrency/</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cryptocurrency</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/environment/</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/femicide/</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Femicide</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/geoengineering/</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Geoengineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/latin-america/</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/sustainability/</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/aleksy-borowka/</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Aleksy Borówka</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/dr-ting-yu-lee/</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Dr. Ting-Yu Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/jacob-l-shapiro/</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Jacob Shapiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/julia-marszalkowska/</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Julia Marszałkowska</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/2022-winter-olympics/</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2022 Winter Olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/diplomacy/</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/europe/</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/georgia/</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/international-security/</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>International security</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/iraq/</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/pandemic/</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>pandemic</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/publications/page/10/</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/the-balkans/</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>The Balkans</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/cooperation-of-the-north-atlantic-alliance-with-georgia-and-the-prospects-of-its-membership-in-nato/</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Cooperation of the North Atlantic Alliance with Georgia and the prospects of its membership in NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/diplomacy-at-the-beijing-2022-winter-olympics/</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Diplomacy at the Beijing 2022 Winter Olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/environmentally-harmful-technologies-should-they-be-banned-can-they-be-banned-part-1/</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Environmentally harmful technologies —Should they be banned? Can they be banned? Part 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/environmentally-harmful-technologies-should-they-be-banned-can-they-be-banned-part-2/</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Environmentally harmful technologies — Should they be banned? Can they be banned? Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/femicide-as-a-human-rights-issue-the-case-of-latin-america/</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Femicide as a Human Rights Issue – the Case of Latin America</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/geopolitics-climate-change-and-supply-chain-resilience/</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Geopolitics, Climate Change, and Supply Chain Resilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/polands-chairmanship-in-osce-a-year-of-opportunities-and-power-probing/</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Poland’s Chairmanship in OSCE – a year of opportunities and power probing</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/scorching-fate-the-impact-of-the-climate-crisis-on-liveability-in-the-middle-east-and-north-africa/</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Scorching Fate: The Impact of the Climate Crisis on Liveability in the Middle East and North Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/tag/balkan-peninsula/</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Balkan Peninsula</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/tag/domestic-policy/</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Domestic policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/the-rise-of-chinese-internet-language-internet-lexicon-and-social-media/</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>The Rise of Chinese Internet Language: Internet Lexicon and Social Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/yesterday-georgia-today-ukraine-the-next-stage-of-russias-power-politics-by-destabilization/</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Yesterday Georgia, today Ukraine – the next stage of Russia’s power politics by destabilization</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsineorgplencategorypublications.xlsx
+++ b/database/httpsineorgplencategorypublications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3157,6 +3157,54 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/piotr-sosnowski/</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Piotr Sosnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/turkey/</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/new-book-from-dr-aleksander-olech/</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>New book from dr Aleksander Olech!</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/will-turkey-keep-a-straits-blockade-for-the-russian-fleet-source-of-ankaras-anxiety-and-kurdish-gas-remedy/</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Will Turkey keep a straits blockade for the Russian fleet? Source of Ankara’s anxiety and Kurdish gas remedy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsineorgplencategorypublications.xlsx
+++ b/database/httpsineorgplencategorypublications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3205,6 +3205,1406 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Programmes</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/bitcoin/"</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/climate-change/"</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/cryptocurrency/"</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Cryptocurrency</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/environment/"</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/femicide/"</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Femicide</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/international-relations/"</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>International Relations</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/latin-america/"</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/law/"</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/publikacje/"</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/category/sustainability/"</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/aleksy-borowka/"</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Aleksy Borówka</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/cosmin-timofte/"</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Cosmin Timofte</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/dr-ting-yu-lee/"</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Dr. Ting-Yu Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/jacob-l-shapiro/"</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Jacob Shapiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/julia-marszalkowska/"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Julia Marszałkowska</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/lena-anna-kuklinska/"</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Lena Anna Kuklińska</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/piotr-puzio/"</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Piotr Puzio</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/piotr-sosnowski/"</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Piotr Sosnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/author/zespol-ine/"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Zespół INE</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/2022-winter-olympics/"</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2022 Winter Olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/5g-en/"</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/africa-and-middle-east/"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Africa and Middle East</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/china/"</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/coronavirus/"</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/diplomacy/"</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/europe/"</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/geopolitics/"</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Geopolitics</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/georgia/"</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/human-rights/"</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Human rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/indo-pacific/"</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Indo-Pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/international-politics/"</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>International Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/international-security/"</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>International security</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/iraq/"</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/map/"</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/migrant-crisis/"</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Migrant crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/nato-en/"</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/new-technologies/"</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>New technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/pandemic/"</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>pandemic</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/publications/"</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/publications/page/10/"</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/publications/page/2/"</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Next Page »</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/publications/page/3/"</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/reports/"</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Reports</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/russia/"</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/security/"</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/syria-en/"</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/turkey/"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/ukraine/"</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/un/"</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/category/usa-en/"</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/contact/"</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/cooperation-of-the-north-atlantic-alliance-with-georgia-and-the-prospects-of-its-membership-in-nato/"</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Cooperation of the North Atlantic Alliance with Georgia and the prospects of its membership in NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/diplomacy-at-the-beijing-2022-winter-olympics/"</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Diplomacy at the Beijing 2022 Winter Olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/environmentally-harmful-technologies-should-they-be-banned-can-they-be-banned-part-2/"</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Environmentally harmful technologies — Should they be banned? Can they be banned? Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/femicide-as-a-human-rights-issue-the-case-of-latin-america/"</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Femicide as a Human Rights Issue – the Case of Latin America</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/fleeing-the-fire-conflict-and-migration-as-two-aspects-within-the-climate-crisis-in-mena/"</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Fleeing the Fire: Conflict and Migration as Two Aspects within the Climate Crisis in MENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/geopolitics-climate-change-and-supply-chain-resilience/"</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Geopolitics, Climate Change, and Supply Chain Resilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/home/"</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/new-book-from-dr-aleksander-olech/"</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>New book from dr Aleksander Olech!</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/newsletter/"</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/people/"</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/scorching-fate-the-impact-of-the-climate-crisis-on-liveability-in-the-middle-east-and-north-africa/"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Scorching Fate: The Impact of the Climate Crisis on Liveability in the Middle East and North Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/support-us/"</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Support us</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/5g-en/"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/afghanistan/"</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/africa/"</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/armament/"</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>armament</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/austria-en/"</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/balkan-peninsula/"</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Balkan Peninsula</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/central-europe/"</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Central Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/china/"</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/climate-change/"</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/conflict/"</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/defense/"</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/diplomacy/"</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/disinformation/"</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>disinformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/domestic-law/"</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Domestic law</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/donald-trump-en/"</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Donald Trump</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/ecology/"</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/economy/"</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/europe/"</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/european-union/"</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>European Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/football/"</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/foreign-policy/"</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>foreign policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/foreign-visits/"</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>foreign visits</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/france/"</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/human-rights/"</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Human rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/humanitarian-crisis/"</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Humanitarian crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/india/"</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/indo-pacific/"</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Indo-Pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/infographic/"</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Infographic</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/international-politics/"</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>International politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/international-security/"</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>International security</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/iran-en/"</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/isis-en/"</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ISIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/joe-biden-en/"</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Joe Biden</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/map/"</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/middle-east/"</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Middle East</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/nato-en/"</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/poland/"</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/russia/"</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/security/"</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/terrorism/"</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>terrorism</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/turkey/"</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/ukraine/"</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/united-nations/"</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>United Nations</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/usa-en/"</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/tag/xi-jinping-en/"</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Xi Jinping</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/the-rise-of-chinese-internet-language-internet-lexicon-and-social-media/"</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>The Rise of Chinese Internet Language: Internet Lexicon and Social Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/will-turkey-keep-a-straits-blockade-for-the-russian-fleet-source-of-ankaras-anxiety-and-kurdish-gas-remedy/"</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Will Turkey keep a straits blockade for the Russian fleet? Source of Ankara’s anxiety and Kurdish gas remedy</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://ine.org.pl/en/yesterday-georgia-today-ukraine-the-next-stage-of-russias-power-politics-by-destabilization/"</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Yesterday Georgia, today Ukraine – the next stage of Russia’s power politics by destabilization</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://open.spotify.com/show/3R2H0ySDdLvCuKi2Cjmjoa"</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://soundcloud.com/user-832174207"</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://twitter.com/IEuropy"</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://www.facebook.com/Instytut-Nowej-Europy-104922954288419/"</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://www.linkedin.com/company/instytut-nowej-europy/?viewAsMember=true"</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="https://www.youtube.com/channel/UCjEaR0sI_9zosy--swl1GAA"</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/href="mailto:kontakt@ine.org.pl"</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>kontakt@ine.org.pl</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsineorgplencategorypublications.xlsx
+++ b/database/httpsineorgplencategorypublications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4605,6 +4605,114 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/category/three-seas-think-tanks-hub/</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Three Seas Think Tanks Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/author/dr-joanna-siekiera/</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>dr Joanna Siekiera</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/3si/</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Three Seas Think Tanks Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/migrant-crisis/</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Migrant crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/category/publications/page/11/</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/fleeing-the-fire-conflict-and-migration-as-two-aspects-within-the-climate-crisis-in-mena/</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Fleeing the Fire: Conflict and Migration as Two Aspects within the Climate Crisis in MENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/the-geopolitics-of-carbon-tax/</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>The geopolitics of carbon tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/the-war-in-ukraine-and-international-law-what-causes-its-ineffectiveness/</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>The war in Ukraine and international law – what causes its ineffectiveness?</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://ine.org.pl/en/three-seas-initiative-towards-the-russian-aggression-on-ukraine-debate/</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Three Seas Initiative towards the Russian Aggression on Ukraine – Debate</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
